--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ybx1-Notch1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ybx1-Notch1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>134.647784</v>
+        <v>163.1857856666667</v>
       </c>
       <c r="H2">
-        <v>403.943352</v>
+        <v>489.557357</v>
       </c>
       <c r="I2">
-        <v>0.2617460968718582</v>
+        <v>0.3160920635566714</v>
       </c>
       <c r="J2">
-        <v>0.2617460968718581</v>
+        <v>0.3160920635566714</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>47.57896333333333</v>
+        <v>70.46291600000001</v>
       </c>
       <c r="N2">
-        <v>142.73689</v>
+        <v>211.388748</v>
       </c>
       <c r="O2">
-        <v>0.4501884529482371</v>
+        <v>0.5276750397950939</v>
       </c>
       <c r="P2">
-        <v>0.450188452948237</v>
+        <v>0.5276750397950939</v>
       </c>
       <c r="Q2">
-        <v>6406.401977850586</v>
+        <v>11498.54630782434</v>
       </c>
       <c r="R2">
-        <v>57657.61780065527</v>
+        <v>103486.916770419</v>
       </c>
       <c r="S2">
-        <v>0.1178350704159812</v>
+        <v>0.1667938922161799</v>
       </c>
       <c r="T2">
-        <v>0.1178350704159812</v>
+        <v>0.1667938922161799</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>134.647784</v>
+        <v>163.1857856666667</v>
       </c>
       <c r="H3">
-        <v>403.943352</v>
+        <v>489.557357</v>
       </c>
       <c r="I3">
-        <v>0.2617460968718582</v>
+        <v>0.3160920635566714</v>
       </c>
       <c r="J3">
-        <v>0.2617460968718581</v>
+        <v>0.3160920635566714</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>29.489171</v>
       </c>
       <c r="O3">
-        <v>0.09300808131111739</v>
+        <v>0.07361176802536967</v>
       </c>
       <c r="P3">
-        <v>0.09300808131111736</v>
+        <v>0.07361176802536967</v>
       </c>
       <c r="Q3">
-        <v>1323.550509049021</v>
+        <v>1604.071179431227</v>
       </c>
       <c r="R3">
-        <v>11911.95458144119</v>
+        <v>14436.64061488105</v>
       </c>
       <c r="S3">
-        <v>0.02434450226072539</v>
+        <v>0.0232680956571941</v>
       </c>
       <c r="T3">
-        <v>0.02434450226072538</v>
+        <v>0.0232680956571941</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>134.647784</v>
+        <v>163.1857856666667</v>
       </c>
       <c r="H4">
-        <v>403.943352</v>
+        <v>489.557357</v>
       </c>
       <c r="I4">
-        <v>0.2617460968718582</v>
+        <v>0.3160920635566714</v>
       </c>
       <c r="J4">
-        <v>0.2617460968718581</v>
+        <v>0.3160920635566714</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>37.34441866666666</v>
+        <v>42.505498</v>
       </c>
       <c r="N4">
-        <v>112.033256</v>
+        <v>127.516494</v>
       </c>
       <c r="O4">
-        <v>0.3533499868001453</v>
+        <v>0.3183105613832428</v>
       </c>
       <c r="P4">
-        <v>0.3533499868001453</v>
+        <v>0.3183105613832428</v>
       </c>
       <c r="Q4">
-        <v>5028.343218234901</v>
+        <v>6936.293086282928</v>
       </c>
       <c r="R4">
-        <v>45255.08896411411</v>
+        <v>62426.63777654635</v>
       </c>
       <c r="S4">
-        <v>0.09248797987466065</v>
+        <v>0.1006154421995117</v>
       </c>
       <c r="T4">
-        <v>0.09248797987466062</v>
+        <v>0.1006154421995117</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>134.647784</v>
+        <v>163.1857856666667</v>
       </c>
       <c r="H5">
-        <v>403.943352</v>
+        <v>489.557357</v>
       </c>
       <c r="I5">
-        <v>0.2617460968718582</v>
+        <v>0.3160920635566714</v>
       </c>
       <c r="J5">
-        <v>0.2617460968718581</v>
+        <v>0.3160920635566714</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.933664</v>
+        <v>10.73653933333333</v>
       </c>
       <c r="N5">
-        <v>32.80099199999999</v>
+        <v>32.209618</v>
       </c>
       <c r="O5">
-        <v>0.1034534789405002</v>
+        <v>0.08040263079629371</v>
       </c>
       <c r="P5">
-        <v>0.1034534789405002</v>
+        <v>0.08040263079629371</v>
       </c>
       <c r="Q5">
-        <v>1472.193628600576</v>
+        <v>1752.05060645107</v>
       </c>
       <c r="R5">
-        <v>13249.74265740518</v>
+        <v>15768.45545805963</v>
       </c>
       <c r="S5">
-        <v>0.02707854432049092</v>
+        <v>0.02541463348378566</v>
       </c>
       <c r="T5">
-        <v>0.0270785443204909</v>
+        <v>0.02541463348378566</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>288.388587</v>
       </c>
       <c r="I6">
-        <v>0.1868692395998147</v>
+        <v>0.1862036026373569</v>
       </c>
       <c r="J6">
-        <v>0.1868692395998147</v>
+        <v>0.1862036026373569</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>47.57896333333333</v>
+        <v>70.46291600000001</v>
       </c>
       <c r="N6">
-        <v>142.73689</v>
+        <v>211.388748</v>
       </c>
       <c r="O6">
-        <v>0.4501884529482371</v>
+        <v>0.5276750397950939</v>
       </c>
       <c r="P6">
-        <v>0.450188452948237</v>
+        <v>0.5276750397950939</v>
       </c>
       <c r="Q6">
-        <v>4573.743335541603</v>
+        <v>6773.566927046565</v>
       </c>
       <c r="R6">
-        <v>41163.69001987443</v>
+        <v>60962.10234341909</v>
       </c>
       <c r="S6">
-        <v>0.08412637387905404</v>
+        <v>0.09825499343165714</v>
       </c>
       <c r="T6">
-        <v>0.08412637387905401</v>
+        <v>0.09825499343165713</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>288.388587</v>
       </c>
       <c r="I7">
-        <v>0.1868692395998147</v>
+        <v>0.1862036026373569</v>
       </c>
       <c r="J7">
-        <v>0.1868692395998147</v>
+        <v>0.1862036026373569</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>29.489171</v>
       </c>
       <c r="O7">
-        <v>0.09300808131111739</v>
+        <v>0.07361176802536967</v>
       </c>
       <c r="P7">
-        <v>0.09300808131111736</v>
+        <v>0.07361176802536967</v>
       </c>
       <c r="Q7">
         <v>944.9267062768197</v>
@@ -883,10 +883,10 @@
         <v>8504.340356491377</v>
       </c>
       <c r="S7">
-        <v>0.01738034943124625</v>
+        <v>0.01370677640282923</v>
       </c>
       <c r="T7">
-        <v>0.01738034943124624</v>
+        <v>0.01370677640282923</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>288.388587</v>
       </c>
       <c r="I8">
-        <v>0.1868692395998147</v>
+        <v>0.1862036026373569</v>
       </c>
       <c r="J8">
-        <v>0.1868692395998147</v>
+        <v>0.1862036026373569</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>37.34441866666666</v>
+        <v>42.505498</v>
       </c>
       <c r="N8">
-        <v>112.033256</v>
+        <v>127.516494</v>
       </c>
       <c r="O8">
-        <v>0.3533499868001453</v>
+        <v>0.3183105613832428</v>
       </c>
       <c r="P8">
-        <v>0.3533499868001453</v>
+        <v>0.3183105613832428</v>
       </c>
       <c r="Q8">
-        <v>3589.901377205475</v>
+        <v>4086.033502650442</v>
       </c>
       <c r="R8">
-        <v>32309.11239484928</v>
+        <v>36774.30152385398</v>
       </c>
       <c r="S8">
-        <v>0.06603024334594773</v>
+        <v>0.05927057328707935</v>
       </c>
       <c r="T8">
-        <v>0.06603024334594772</v>
+        <v>0.05927057328707933</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>288.388587</v>
       </c>
       <c r="I9">
-        <v>0.1868692395998147</v>
+        <v>0.1862036026373569</v>
       </c>
       <c r="J9">
-        <v>0.1868692395998147</v>
+        <v>0.1862036026373569</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>10.933664</v>
+        <v>10.73653933333333</v>
       </c>
       <c r="N9">
-        <v>32.80099199999999</v>
+        <v>32.209618</v>
       </c>
       <c r="O9">
-        <v>0.1034534789405002</v>
+        <v>0.08040263079629371</v>
       </c>
       <c r="P9">
-        <v>0.1034534789405002</v>
+        <v>0.08040263079629371</v>
       </c>
       <c r="Q9">
-        <v>1051.047970564256</v>
+        <v>1032.098469203307</v>
       </c>
       <c r="R9">
-        <v>9459.431735078304</v>
+        <v>9288.886222829766</v>
       </c>
       <c r="S9">
-        <v>0.01933227294356673</v>
+        <v>0.01497125951579119</v>
       </c>
       <c r="T9">
-        <v>0.01933227294356672</v>
+        <v>0.01497125951579119</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>127.817347</v>
+        <v>133.6085763333333</v>
       </c>
       <c r="H10">
-        <v>383.452041</v>
+        <v>400.825729</v>
       </c>
       <c r="I10">
-        <v>0.248468193800842</v>
+        <v>0.2588007921740151</v>
       </c>
       <c r="J10">
-        <v>0.248468193800842</v>
+        <v>0.2588007921740151</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>47.57896333333333</v>
+        <v>70.46291600000001</v>
       </c>
       <c r="N10">
-        <v>142.73689</v>
+        <v>211.388748</v>
       </c>
       <c r="O10">
-        <v>0.4501884529482371</v>
+        <v>0.5276750397950939</v>
       </c>
       <c r="P10">
-        <v>0.450188452948237</v>
+        <v>0.5276750397950939</v>
       </c>
       <c r="Q10">
-        <v>6081.416866276943</v>
+        <v>9414.449891055256</v>
       </c>
       <c r="R10">
-        <v>54732.75179649248</v>
+        <v>84730.04901949731</v>
       </c>
       <c r="S10">
-        <v>0.1118575117740438</v>
+        <v>0.1365627183094253</v>
       </c>
       <c r="T10">
-        <v>0.1118575117740438</v>
+        <v>0.1365627183094253</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>127.817347</v>
+        <v>133.6085763333333</v>
       </c>
       <c r="H11">
-        <v>383.452041</v>
+        <v>400.825729</v>
       </c>
       <c r="I11">
-        <v>0.248468193800842</v>
+        <v>0.2588007921740151</v>
       </c>
       <c r="J11">
-        <v>0.248468193800842</v>
+        <v>0.2588007921740151</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>29.489171</v>
       </c>
       <c r="O11">
-        <v>0.09300808131111739</v>
+        <v>0.07361176802536967</v>
       </c>
       <c r="P11">
-        <v>0.09300808131111736</v>
+        <v>0.07361176802536967</v>
       </c>
       <c r="Q11">
-        <v>1256.409200816445</v>
+        <v>1313.335384853407</v>
       </c>
       <c r="R11">
-        <v>11307.68280734801</v>
+        <v>11820.01846368066</v>
       </c>
       <c r="S11">
-        <v>0.02310954997225518</v>
+        <v>0.01905078387829551</v>
       </c>
       <c r="T11">
-        <v>0.02310954997225518</v>
+        <v>0.01905078387829551</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>127.817347</v>
+        <v>133.6085763333333</v>
       </c>
       <c r="H12">
-        <v>383.452041</v>
+        <v>400.825729</v>
       </c>
       <c r="I12">
-        <v>0.248468193800842</v>
+        <v>0.2588007921740151</v>
       </c>
       <c r="J12">
-        <v>0.248468193800842</v>
+        <v>0.2588007921740151</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>37.34441866666666</v>
+        <v>42.505498</v>
       </c>
       <c r="N12">
-        <v>112.033256</v>
+        <v>127.516494</v>
       </c>
       <c r="O12">
-        <v>0.3533499868001453</v>
+        <v>0.3183105613832428</v>
       </c>
       <c r="P12">
-        <v>0.3533499868001453</v>
+        <v>0.3183105613832428</v>
       </c>
       <c r="Q12">
-        <v>4773.26451923061</v>
+        <v>5679.099074119346</v>
       </c>
       <c r="R12">
-        <v>42959.38067307549</v>
+        <v>51111.89166707412</v>
       </c>
       <c r="S12">
-        <v>0.08779623299978347</v>
+        <v>0.08237902544333871</v>
       </c>
       <c r="T12">
-        <v>0.08779623299978344</v>
+        <v>0.08237902544333871</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>127.817347</v>
+        <v>133.6085763333333</v>
       </c>
       <c r="H13">
-        <v>383.452041</v>
+        <v>400.825729</v>
       </c>
       <c r="I13">
-        <v>0.248468193800842</v>
+        <v>0.2588007921740151</v>
       </c>
       <c r="J13">
-        <v>0.248468193800842</v>
+        <v>0.2588007921740151</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>10.933664</v>
+        <v>10.73653933333333</v>
       </c>
       <c r="N13">
-        <v>32.80099199999999</v>
+        <v>32.209618</v>
       </c>
       <c r="O13">
-        <v>0.1034534789405002</v>
+        <v>0.08040263079629371</v>
       </c>
       <c r="P13">
-        <v>0.1034534789405002</v>
+        <v>0.08040263079629371</v>
       </c>
       <c r="Q13">
-        <v>1397.511925469408</v>
+        <v>1434.493735073502</v>
       </c>
       <c r="R13">
-        <v>12577.60732922467</v>
+        <v>12910.44361566152</v>
       </c>
       <c r="S13">
-        <v>0.02570489905475954</v>
+        <v>0.02080826454295568</v>
       </c>
       <c r="T13">
-        <v>0.02570489905475953</v>
+        <v>0.02080826454295568</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>155.8267033333333</v>
+        <v>123.3364156666667</v>
       </c>
       <c r="H14">
-        <v>467.48011</v>
+        <v>370.009247</v>
       </c>
       <c r="I14">
-        <v>0.3029164697274852</v>
+        <v>0.2389035416319566</v>
       </c>
       <c r="J14">
-        <v>0.3029164697274851</v>
+        <v>0.2389035416319566</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>47.57896333333333</v>
+        <v>70.46291600000001</v>
       </c>
       <c r="N14">
-        <v>142.73689</v>
+        <v>211.388748</v>
       </c>
       <c r="O14">
-        <v>0.4501884529482371</v>
+        <v>0.5276750397950939</v>
       </c>
       <c r="P14">
-        <v>0.450188452948237</v>
+        <v>0.5276750397950939</v>
       </c>
       <c r="Q14">
-        <v>7414.073004250876</v>
+        <v>8690.643496861418</v>
       </c>
       <c r="R14">
-        <v>66726.65703825789</v>
+        <v>78215.79147175276</v>
       </c>
       <c r="S14">
-        <v>0.1363694968791581</v>
+        <v>0.1260634358378316</v>
       </c>
       <c r="T14">
-        <v>0.136369496879158</v>
+        <v>0.1260634358378316</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>155.8267033333333</v>
+        <v>123.3364156666667</v>
       </c>
       <c r="H15">
-        <v>467.48011</v>
+        <v>370.009247</v>
       </c>
       <c r="I15">
-        <v>0.3029164697274852</v>
+        <v>0.2389035416319566</v>
       </c>
       <c r="J15">
-        <v>0.3029164697274851</v>
+        <v>0.2389035416319566</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>29.489171</v>
       </c>
       <c r="O15">
-        <v>0.09300808131111739</v>
+        <v>0.07361176802536967</v>
       </c>
       <c r="P15">
-        <v>0.09300808131111736</v>
+        <v>0.07361176802536967</v>
       </c>
       <c r="Q15">
-        <v>1531.733433654312</v>
+        <v>1212.362884040471</v>
       </c>
       <c r="R15">
-        <v>13785.60090288881</v>
+        <v>10911.26595636424</v>
       </c>
       <c r="S15">
-        <v>0.02817367964689057</v>
+        <v>0.01758611208705083</v>
       </c>
       <c r="T15">
-        <v>0.02817367964689056</v>
+        <v>0.01758611208705083</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>155.8267033333333</v>
+        <v>123.3364156666667</v>
       </c>
       <c r="H16">
-        <v>467.48011</v>
+        <v>370.009247</v>
       </c>
       <c r="I16">
-        <v>0.3029164697274852</v>
+        <v>0.2389035416319566</v>
       </c>
       <c r="J16">
-        <v>0.3029164697274851</v>
+        <v>0.2389035416319566</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>37.34441866666666</v>
+        <v>42.505498</v>
       </c>
       <c r="N16">
-        <v>112.033256</v>
+        <v>127.516494</v>
       </c>
       <c r="O16">
-        <v>0.3533499868001453</v>
+        <v>0.3183105613832428</v>
       </c>
       <c r="P16">
-        <v>0.3533499868001453</v>
+        <v>0.3183105613832428</v>
       </c>
       <c r="Q16">
-        <v>5819.257648726461</v>
+        <v>5242.475769446668</v>
       </c>
       <c r="R16">
-        <v>52373.31883853815</v>
+        <v>47182.28192502002</v>
       </c>
       <c r="S16">
-        <v>0.1070355305797535</v>
+        <v>0.07604552045331302</v>
       </c>
       <c r="T16">
-        <v>0.1070355305797535</v>
+        <v>0.07604552045331302</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>155.8267033333333</v>
+        <v>123.3364156666667</v>
       </c>
       <c r="H17">
-        <v>467.48011</v>
+        <v>370.009247</v>
       </c>
       <c r="I17">
-        <v>0.3029164697274852</v>
+        <v>0.2389035416319566</v>
       </c>
       <c r="J17">
-        <v>0.3029164697274851</v>
+        <v>0.2389035416319566</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>10.933664</v>
+        <v>10.73653933333333</v>
       </c>
       <c r="N17">
-        <v>32.80099199999999</v>
+        <v>32.209618</v>
       </c>
       <c r="O17">
-        <v>0.1034534789405002</v>
+        <v>0.08040263079629371</v>
       </c>
       <c r="P17">
-        <v>0.1034534789405002</v>
+        <v>0.08040263079629371</v>
       </c>
       <c r="Q17">
-        <v>1703.756816474346</v>
+        <v>1324.206278037516</v>
       </c>
       <c r="R17">
-        <v>15333.81134826912</v>
+        <v>11917.85650233765</v>
       </c>
       <c r="S17">
-        <v>0.03133776262168307</v>
+        <v>0.01920847325376119</v>
       </c>
       <c r="T17">
-        <v>0.03133776262168306</v>
+        <v>0.01920847325376119</v>
       </c>
     </row>
   </sheetData>
